--- a/Images/Side by side comparison.xlsx
+++ b/Images/Side by side comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cewar\Documents\GitHub\School_District_Analysis\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAD0D16-945A-4712-AEDF-7159CCFC956D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A783D522-70EC-47F6-BA6C-E4FF6B3E767F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="96" yWindow="96" windowWidth="11652" windowHeight="12264" xr2:uid="{05015525-B32D-481F-A1AD-3C622BC21C87}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="32">
   <si>
     <t>Original Data</t>
   </si>
@@ -544,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63664783-FB94-45E2-B943-52041B60798C}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1673,6 +1673,58 @@
         <v>90.333332999999996</v>
       </c>
     </row>
+    <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E28" s="9">
+        <v>83.418349000000006</v>
+      </c>
+      <c r="F28" s="9">
+        <v>83.848929999999996</v>
+      </c>
+      <c r="G28" s="9">
+        <v>93.272171</v>
+      </c>
+      <c r="H28" s="9">
+        <v>97.308869000000001</v>
+      </c>
+      <c r="I28" s="9">
+        <v>90.948012000000006</v>
+      </c>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E29" s="9">
+        <v>83.350937000000002</v>
+      </c>
+      <c r="F29" s="9">
+        <v>83.896082000000007</v>
+      </c>
+      <c r="G29" s="9">
+        <v>66.911315000000002</v>
+      </c>
+      <c r="H29" s="9">
+        <v>69.663608999999994</v>
+      </c>
+      <c r="I29" s="9">
+        <v>65.076453000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Images/Side by side comparison.xlsx
+++ b/Images/Side by side comparison.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cewar\Documents\GitHub\School_District_Analysis\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A783D522-70EC-47F6-BA6C-E4FF6B3E767F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBABC9DD-1AE3-48DA-A35E-A608399FD187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="11652" windowHeight="12264" xr2:uid="{05015525-B32D-481F-A1AD-3C622BC21C87}"/>
+    <workbookView xWindow="10176" yWindow="96" windowWidth="12720" windowHeight="12264" activeTab="1" xr2:uid="{05015525-B32D-481F-A1AD-3C622BC21C87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$J$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="32">
   <si>
     <t>Original Data</t>
   </si>
@@ -160,7 +164,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +189,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -198,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -230,6 +246,26 @@
     <xf numFmtId="8" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63664783-FB94-45E2-B943-52041B60798C}">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1729,4 +1765,536 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DFA993-2AD8-4F0A-AF8A-121E29383AA4}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="12">
+        <v>962</v>
+      </c>
+      <c r="D2" s="13">
+        <v>585858</v>
+      </c>
+      <c r="E2" s="13">
+        <v>609</v>
+      </c>
+      <c r="F2" s="12">
+        <v>83.839917</v>
+      </c>
+      <c r="G2" s="12">
+        <v>84.044698999999994</v>
+      </c>
+      <c r="H2" s="12">
+        <v>94.594594999999998</v>
+      </c>
+      <c r="I2" s="12">
+        <v>95.945946000000006</v>
+      </c>
+      <c r="J2" s="12">
+        <v>90.540541000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="14" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6">
+        <v>427</v>
+      </c>
+      <c r="D3" s="7">
+        <v>248087</v>
+      </c>
+      <c r="E3" s="7">
+        <v>581</v>
+      </c>
+      <c r="F3" s="6">
+        <v>83.803279000000003</v>
+      </c>
+      <c r="G3" s="6">
+        <v>83.814988</v>
+      </c>
+      <c r="H3" s="6">
+        <v>92.505854999999997</v>
+      </c>
+      <c r="I3" s="6">
+        <v>96.252927</v>
+      </c>
+      <c r="J3" s="6">
+        <v>89.227165999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="18" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1800</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1049400</v>
+      </c>
+      <c r="E4" s="7">
+        <v>583</v>
+      </c>
+      <c r="F4" s="6">
+        <v>83.682221999999996</v>
+      </c>
+      <c r="G4" s="6">
+        <v>83.954999999999998</v>
+      </c>
+      <c r="H4" s="6">
+        <v>93.333332999999996</v>
+      </c>
+      <c r="I4" s="6">
+        <v>96.611110999999994</v>
+      </c>
+      <c r="J4" s="6">
+        <v>90.333332999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1635</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1043130</v>
+      </c>
+      <c r="E5" s="13">
+        <v>638</v>
+      </c>
+      <c r="F5" s="12">
+        <v>83.418349000000006</v>
+      </c>
+      <c r="G5" s="12">
+        <v>83.848929999999996</v>
+      </c>
+      <c r="H5" s="12">
+        <v>93.272171</v>
+      </c>
+      <c r="I5" s="12">
+        <v>97.308869000000001</v>
+      </c>
+      <c r="J5" s="12">
+        <v>90.948012000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1761</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1056600</v>
+      </c>
+      <c r="E6" s="4">
+        <v>600</v>
+      </c>
+      <c r="F6" s="2">
+        <v>83.359454999999997</v>
+      </c>
+      <c r="G6" s="2">
+        <v>83.725724</v>
+      </c>
+      <c r="H6" s="2">
+        <v>93.867120999999997</v>
+      </c>
+      <c r="I6" s="2">
+        <v>95.854628000000005</v>
+      </c>
+      <c r="J6" s="2">
+        <v>89.892106999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="18" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1468</v>
+      </c>
+      <c r="D7" s="13">
+        <v>917500</v>
+      </c>
+      <c r="E7" s="13">
+        <v>625</v>
+      </c>
+      <c r="F7" s="12">
+        <v>83.351499000000004</v>
+      </c>
+      <c r="G7" s="12">
+        <v>83.816756999999996</v>
+      </c>
+      <c r="H7" s="12">
+        <v>93.392370999999997</v>
+      </c>
+      <c r="I7" s="12">
+        <v>97.138964999999999</v>
+      </c>
+      <c r="J7" s="12">
+        <v>90.599455000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2283</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1319574</v>
+      </c>
+      <c r="E8" s="13">
+        <v>578</v>
+      </c>
+      <c r="F8" s="12">
+        <v>83.274201000000005</v>
+      </c>
+      <c r="G8" s="12">
+        <v>83.989487999999994</v>
+      </c>
+      <c r="H8" s="12">
+        <v>93.867717999999996</v>
+      </c>
+      <c r="I8" s="12">
+        <v>96.539641000000003</v>
+      </c>
+      <c r="J8" s="12">
+        <v>90.582566999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="18" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1858</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1081356</v>
+      </c>
+      <c r="E9" s="13">
+        <v>582</v>
+      </c>
+      <c r="F9" s="12">
+        <v>83.061895000000007</v>
+      </c>
+      <c r="G9" s="12">
+        <v>83.97578</v>
+      </c>
+      <c r="H9" s="12">
+        <v>94.133476999999999</v>
+      </c>
+      <c r="I9" s="12">
+        <v>97.039828</v>
+      </c>
+      <c r="J9" s="12">
+        <v>91.334768999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="18" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16">
+        <v>4635</v>
+      </c>
+      <c r="D10" s="17">
+        <v>3022020</v>
+      </c>
+      <c r="E10" s="17">
+        <v>652</v>
+      </c>
+      <c r="F10" s="16">
+        <v>77.289751999999993</v>
+      </c>
+      <c r="G10" s="16">
+        <v>80.934411999999995</v>
+      </c>
+      <c r="H10" s="16">
+        <v>66.752966999999998</v>
+      </c>
+      <c r="I10" s="16">
+        <v>80.862999000000002</v>
+      </c>
+      <c r="J10" s="16">
+        <v>53.527507999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2739</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1763916</v>
+      </c>
+      <c r="E11" s="4">
+        <v>644</v>
+      </c>
+      <c r="F11" s="2">
+        <v>77.102592000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>80.746257999999997</v>
+      </c>
+      <c r="H11" s="2">
+        <v>68.309601999999998</v>
+      </c>
+      <c r="I11" s="2">
+        <v>79.299014</v>
+      </c>
+      <c r="J11" s="2">
+        <v>54.289887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="18" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="16">
+        <v>4761</v>
+      </c>
+      <c r="D12" s="17">
+        <v>3094650</v>
+      </c>
+      <c r="E12" s="17">
+        <v>650</v>
+      </c>
+      <c r="F12" s="16">
+        <v>77.072463999999997</v>
+      </c>
+      <c r="G12" s="16">
+        <v>80.966393999999994</v>
+      </c>
+      <c r="H12" s="16">
+        <v>66.057551000000004</v>
+      </c>
+      <c r="I12" s="16">
+        <v>81.222431999999998</v>
+      </c>
+      <c r="J12" s="16">
+        <v>53.539172000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4976</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3124928</v>
+      </c>
+      <c r="E13" s="7">
+        <v>628</v>
+      </c>
+      <c r="F13" s="6">
+        <v>77.048432000000005</v>
+      </c>
+      <c r="G13" s="6">
+        <v>81.033963</v>
+      </c>
+      <c r="H13" s="6">
+        <v>66.680064000000002</v>
+      </c>
+      <c r="I13" s="6">
+        <v>81.933279999999996</v>
+      </c>
+      <c r="J13" s="6">
+        <v>54.642282999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="16">
+        <v>3999</v>
+      </c>
+      <c r="D14" s="17">
+        <v>2547363</v>
+      </c>
+      <c r="E14" s="17">
+        <v>637</v>
+      </c>
+      <c r="F14" s="16">
+        <v>76.842710999999994</v>
+      </c>
+      <c r="G14" s="16">
+        <v>80.744686000000002</v>
+      </c>
+      <c r="H14" s="16">
+        <v>66.366591999999997</v>
+      </c>
+      <c r="I14" s="16">
+        <v>80.220055000000002</v>
+      </c>
+      <c r="J14" s="16">
+        <v>52.988247000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="16">
+        <v>2949</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1884411</v>
+      </c>
+      <c r="E15" s="17">
+        <v>639</v>
+      </c>
+      <c r="F15" s="16">
+        <v>76.711766999999995</v>
+      </c>
+      <c r="G15" s="16">
+        <v>81.158019999999993</v>
+      </c>
+      <c r="H15" s="16">
+        <v>65.988471000000004</v>
+      </c>
+      <c r="I15" s="16">
+        <v>80.739233999999996</v>
+      </c>
+      <c r="J15" s="16">
+        <v>53.204476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="16">
+        <v>2917</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1910635</v>
+      </c>
+      <c r="E16" s="17">
+        <v>655</v>
+      </c>
+      <c r="F16" s="16">
+        <v>76.629413999999997</v>
+      </c>
+      <c r="G16" s="16">
+        <v>81.182721999999998</v>
+      </c>
+      <c r="H16" s="16">
+        <v>65.683921999999995</v>
+      </c>
+      <c r="I16" s="16">
+        <v>81.316421000000005</v>
+      </c>
+      <c r="J16" s="16">
+        <v>53.513883999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{46DFA993-2AD8-4F0A-AF8A-121E29383AA4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
+      <sortCondition descending="1" ref="F1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>